--- a/prep_and_checklists/Aviv Foundation  /PREPLIST_Aviv Foundation  _11-10-2025_0.xlsx
+++ b/prep_and_checklists/Aviv Foundation  /PREPLIST_Aviv Foundation  _11-10-2025_0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcuvin/purveyor_project/prep_and_checklists/Aviv Foundation  /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CDAABC-CAF4-664D-9629-7FA6B29710BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2723EE90-6EED-F746-9F4A-E8A1B3E9A3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prep_sheet" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="219">
   <si>
-    <t xml:space="preserve">Aviv Foundation  , Guests: 15   , 9:00 AM - 5:00 PM   ,Thursday, November 20, 2025  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Location: West Room  </t>
   </si>
   <si>
@@ -45,6 +42,9 @@
   </si>
   <si>
     <t>clean and pick grapes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
   <si>
     <t>assorted bagels</t>
@@ -737,7 +737,7 @@
     <t>1 quart dry</t>
   </si>
   <si>
-    <t>2 x ginori bowls</t>
+    <t xml:space="preserve">Aviv Foundation Day 2  , Guests: 15   , 9:00 AM - 5:00 PM   ,Thursday, November 20, 2025  </t>
   </si>
 </sst>
 </file>
@@ -1185,10 +1185,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="A3" sqref="A3:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1204,25 +1207,25 @@
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>0</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="8"/>
       <c r="D3" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" s="8"/>
       <c r="G3" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H3" s="8"/>
     </row>
@@ -1242,27 +1245,27 @@
     </row>
     <row r="5" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>171</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>188</v>
@@ -1331,7 +1334,7 @@
         <v>21</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -1353,7 +1356,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>27</v>
@@ -1373,7 +1376,7 @@
         <v>170</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>28</v>
@@ -1453,7 +1456,7 @@
         <v>40</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -1495,7 +1498,7 @@
         <v>166</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>52</v>
@@ -1543,13 +1546,13 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>172</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>56</v>
@@ -1575,7 +1578,7 @@
         <v>58</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -1595,7 +1598,7 @@
         <v>60</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>218</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -1653,7 +1656,7 @@
         <v>46</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="19" x14ac:dyDescent="0.2">
@@ -1667,7 +1670,7 @@
         <v>61</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -1703,7 +1706,7 @@
         <v>63</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1725,7 +1728,7 @@
         <v>65</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1741,7 +1744,7 @@
         <v>176</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1757,7 +1760,7 @@
         <v>178</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1781,7 +1784,7 @@
         <v>181</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1813,7 +1816,7 @@
         <v>184</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="4:5" ht="16" x14ac:dyDescent="0.2">
@@ -1849,8 +1852,8 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="G3:H3"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="54" orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -2596,5 +2599,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>